--- a/data/Subset1_WithDialogActs/Maher_Equivalence 1_Grade 4.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Maher_Equivalence 1_Grade 4.xlsx_with_dialog_acts.xlsx
@@ -517,12 +517,12 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -951,12 +951,12 @@
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1065,12 +1065,12 @@
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1483,12 +1483,12 @@
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1985,12 +1985,12 @@
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3929,12 +3929,12 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -4081,12 +4081,12 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4993,12 +4993,12 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5411,12 +5411,12 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -5601,12 +5601,12 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5867,12 +5867,12 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5981,12 +5981,12 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6399,12 +6399,12 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7585,12 +7585,12 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7775,12 +7775,12 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8193,12 +8193,12 @@
       <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8421,12 +8421,12 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8497,12 +8497,12 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8919,12 +8919,12 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9071,12 +9071,12 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9185,12 +9185,12 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9569,12 +9569,12 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10215,12 +10215,12 @@
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10443,12 +10443,12 @@
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10481,12 +10481,12 @@
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10675,12 +10675,12 @@
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -10713,12 +10713,12 @@
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10751,12 +10751,12 @@
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -10979,12 +10979,12 @@
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12081,12 +12081,12 @@
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12423,12 +12423,12 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12575,12 +12575,12 @@
       <c r="H318" t="inlineStr"/>
       <c r="I318" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12841,12 +12841,12 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13297,12 +13297,12 @@
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13411,12 +13411,12 @@
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -13717,12 +13717,12 @@
       <c r="H348" t="inlineStr"/>
       <c r="I348" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13793,12 +13793,12 @@
       <c r="H350" t="inlineStr"/>
       <c r="I350" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J350" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13907,12 +13907,12 @@
       <c r="H353" t="inlineStr"/>
       <c r="I353" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14137,12 +14137,12 @@
       <c r="H359" t="inlineStr"/>
       <c r="I359" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14177,12 +14177,12 @@
       <c r="H360" t="inlineStr"/>
       <c r="I360" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14825,12 +14825,12 @@
       </c>
       <c r="I377" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J377" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -15091,12 +15091,12 @@
       </c>
       <c r="I384" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J384" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15205,12 +15205,12 @@
       </c>
       <c r="I387" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16349,12 +16349,12 @@
       <c r="H417" t="inlineStr"/>
       <c r="I417" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16463,12 +16463,12 @@
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -16539,12 +16539,12 @@
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -16919,12 +16919,12 @@
       </c>
       <c r="I432" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J432" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17147,12 +17147,12 @@
       </c>
       <c r="I438" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J438" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17261,12 +17261,12 @@
       </c>
       <c r="I441" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J441" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17527,12 +17527,12 @@
       </c>
       <c r="I448" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J448" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -17603,12 +17603,12 @@
       </c>
       <c r="I450" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J450" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -18221,12 +18221,12 @@
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J466" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -18259,12 +18259,12 @@
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J467" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -18335,12 +18335,12 @@
       </c>
       <c r="I469" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J469" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -18411,12 +18411,12 @@
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J471" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18487,12 +18487,12 @@
       </c>
       <c r="I473" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J473" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18523,12 +18523,12 @@
       </c>
       <c r="I474" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J474" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19203,12 +19203,12 @@
       </c>
       <c r="I492" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J492" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19663,12 +19663,12 @@
       <c r="H504" t="inlineStr"/>
       <c r="I504" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J504" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19777,12 +19777,12 @@
       </c>
       <c r="I507" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J507" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -19853,12 +19853,12 @@
       </c>
       <c r="I509" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J509" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20157,12 +20157,12 @@
       <c r="H517" t="inlineStr"/>
       <c r="I517" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J517" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -20387,12 +20387,12 @@
       </c>
       <c r="I523" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J523" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -20467,12 +20467,12 @@
       </c>
       <c r="I525" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J525" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20623,12 +20623,12 @@
       </c>
       <c r="I529" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J529" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20779,12 +20779,12 @@
       </c>
       <c r="I533" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J533" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20893,12 +20893,12 @@
       </c>
       <c r="I536" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J536" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21007,12 +21007,12 @@
       <c r="H539" t="inlineStr"/>
       <c r="I539" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J539" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21391,12 +21391,12 @@
       </c>
       <c r="I549" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J549" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21769,12 +21769,12 @@
       </c>
       <c r="I559" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J559" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21883,12 +21883,12 @@
       </c>
       <c r="I562" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J562" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22305,12 +22305,12 @@
       </c>
       <c r="I573" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J573" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23029,12 +23029,12 @@
       </c>
       <c r="I592" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J592" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23067,12 +23067,12 @@
       </c>
       <c r="I593" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J593" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -23259,12 +23259,12 @@
       </c>
       <c r="I598" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J598" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23639,12 +23639,12 @@
       </c>
       <c r="I608" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J608" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23791,12 +23791,12 @@
       </c>
       <c r="I612" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J612" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -23943,12 +23943,12 @@
       </c>
       <c r="I616" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J616" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -24325,12 +24325,12 @@
       </c>
       <c r="I626" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J626" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -24591,12 +24591,12 @@
       </c>
       <c r="I633" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J633" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -24895,12 +24895,12 @@
       </c>
       <c r="I641" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J641" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -25959,12 +25959,12 @@
       </c>
       <c r="I669" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J669" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -26613,12 +26613,12 @@
       </c>
       <c r="I686" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J686" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -26753,12 +26753,12 @@
       <c r="H690" t="inlineStr"/>
       <c r="I690" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J690" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -26787,12 +26787,12 @@
       <c r="H691" t="inlineStr"/>
       <c r="I691" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J691" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -26821,12 +26821,12 @@
       <c r="H692" t="inlineStr"/>
       <c r="I692" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J692" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -26891,12 +26891,12 @@
       <c r="H694" t="inlineStr"/>
       <c r="I694" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J694" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -26997,12 +26997,12 @@
       <c r="H697" t="inlineStr"/>
       <c r="I697" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J697" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -27471,12 +27471,12 @@
       <c r="H711" t="inlineStr"/>
       <c r="I711" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J711" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -27927,12 +27927,12 @@
       <c r="H724" t="inlineStr"/>
       <c r="I724" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J724" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -28579,12 +28579,12 @@
       <c r="H743" t="inlineStr"/>
       <c r="I743" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J743" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -28783,12 +28783,12 @@
       <c r="H749" t="inlineStr"/>
       <c r="I749" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J749" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -29177,12 +29177,12 @@
       <c r="H760" t="inlineStr"/>
       <c r="I760" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J760" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -29821,12 +29821,12 @@
       <c r="H778" t="inlineStr"/>
       <c r="I778" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J778" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -30099,12 +30099,12 @@
       <c r="H786" t="inlineStr"/>
       <c r="I786" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J786" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -30171,12 +30171,12 @@
       <c r="H788" t="inlineStr"/>
       <c r="I788" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J788" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -30243,12 +30243,12 @@
       <c r="H790" t="inlineStr"/>
       <c r="I790" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J790" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -30565,12 +30565,12 @@
       <c r="H799" t="inlineStr"/>
       <c r="I799" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J799" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -31035,12 +31035,12 @@
       <c r="H812" t="inlineStr"/>
       <c r="I812" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J812" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -31175,12 +31175,12 @@
       <c r="H816" t="inlineStr"/>
       <c r="I816" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J816" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -31549,12 +31549,12 @@
       <c r="H827" t="inlineStr"/>
       <c r="I827" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J827" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -32439,12 +32439,12 @@
       <c r="H853" t="inlineStr"/>
       <c r="I853" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J853" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -32507,12 +32507,12 @@
       <c r="H855" t="inlineStr"/>
       <c r="I855" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J855" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -32653,12 +32653,12 @@
       <c r="H859" t="inlineStr"/>
       <c r="I859" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J859" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -32839,12 +32839,12 @@
       <c r="H864" t="inlineStr"/>
       <c r="I864" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J864" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -32953,12 +32953,12 @@
       <c r="H867" t="inlineStr"/>
       <c r="I867" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J867" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -33381,12 +33381,12 @@
       <c r="H879" t="inlineStr"/>
       <c r="I879" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J879" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -33935,12 +33935,12 @@
       <c r="H894" t="inlineStr"/>
       <c r="I894" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J894" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -34071,12 +34071,12 @@
       <c r="H898" t="inlineStr"/>
       <c r="I898" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J898" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -34469,12 +34469,12 @@
       <c r="H909" t="inlineStr"/>
       <c r="I909" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J909" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -35531,12 +35531,12 @@
       <c r="H938" t="inlineStr"/>
       <c r="I938" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J938" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -35641,12 +35641,12 @@
       <c r="H941" t="inlineStr"/>
       <c r="I941" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J941" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -35679,12 +35679,12 @@
       <c r="H942" t="inlineStr"/>
       <c r="I942" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J942" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -35789,12 +35789,12 @@
       <c r="H945" t="inlineStr"/>
       <c r="I945" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J945" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -35975,12 +35975,12 @@
       <c r="H950" t="inlineStr"/>
       <c r="I950" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J950" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
